--- a/Documentation/Annexes/Planification initiale_MB.xlsx
+++ b/Documentation/Annexes/Planification initiale_MB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\IT2\Projets\MB\TPI\_Rendu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Shoot4Stats\Documentation\Annexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -483,13 +483,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -781,10 +781,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:DR19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.7109375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1035,168 +1038,168 @@
       <c r="DI2" s="31"/>
       <c r="DJ2" s="31"/>
       <c r="DK2" s="30"/>
-      <c r="DL2" s="36" t="s">
+      <c r="DL2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="DM2" s="37"/>
-      <c r="DN2" s="37"/>
-      <c r="DO2" s="37"/>
-      <c r="DP2" s="37"/>
-      <c r="DQ2" s="37"/>
-      <c r="DR2" s="37"/>
+      <c r="DM2" s="36"/>
+      <c r="DN2" s="36"/>
+      <c r="DO2" s="36"/>
+      <c r="DP2" s="36"/>
+      <c r="DQ2" s="36"/>
+      <c r="DR2" s="36"/>
     </row>
     <row r="3" spans="2:122" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:122" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35" t="s">
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35" t="s">
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35" t="s">
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35" t="s">
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35" t="s">
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35" t="s">
+      <c r="BH4" s="37"/>
+      <c r="BI4" s="37"/>
+      <c r="BJ4" s="37"/>
+      <c r="BK4" s="37"/>
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="37"/>
+      <c r="BO4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35" t="s">
+      <c r="BP4" s="37"/>
+      <c r="BQ4" s="37"/>
+      <c r="BR4" s="37"/>
+      <c r="BS4" s="37"/>
+      <c r="BT4" s="37"/>
+      <c r="BU4" s="37"/>
+      <c r="BV4" s="37"/>
+      <c r="BW4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35" t="s">
+      <c r="BX4" s="37"/>
+      <c r="BY4" s="37"/>
+      <c r="BZ4" s="37"/>
+      <c r="CA4" s="37"/>
+      <c r="CB4" s="37"/>
+      <c r="CC4" s="37"/>
+      <c r="CD4" s="37"/>
+      <c r="CE4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35"/>
-      <c r="CJ4" s="35"/>
-      <c r="CK4" s="35"/>
-      <c r="CL4" s="35"/>
-      <c r="CM4" s="35" t="s">
+      <c r="CF4" s="37"/>
+      <c r="CG4" s="37"/>
+      <c r="CH4" s="37"/>
+      <c r="CI4" s="37"/>
+      <c r="CJ4" s="37"/>
+      <c r="CK4" s="37"/>
+      <c r="CL4" s="37"/>
+      <c r="CM4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="CN4" s="35"/>
-      <c r="CO4" s="35"/>
-      <c r="CP4" s="35"/>
-      <c r="CQ4" s="35"/>
-      <c r="CR4" s="35"/>
-      <c r="CS4" s="35"/>
-      <c r="CT4" s="35"/>
-      <c r="CU4" s="35" t="s">
+      <c r="CN4" s="37"/>
+      <c r="CO4" s="37"/>
+      <c r="CP4" s="37"/>
+      <c r="CQ4" s="37"/>
+      <c r="CR4" s="37"/>
+      <c r="CS4" s="37"/>
+      <c r="CT4" s="37"/>
+      <c r="CU4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="CV4" s="35"/>
-      <c r="CW4" s="35"/>
-      <c r="CX4" s="35"/>
-      <c r="CY4" s="35"/>
-      <c r="CZ4" s="35"/>
-      <c r="DA4" s="35"/>
-      <c r="DB4" s="35"/>
-      <c r="DC4" s="35" t="s">
+      <c r="CV4" s="37"/>
+      <c r="CW4" s="37"/>
+      <c r="CX4" s="37"/>
+      <c r="CY4" s="37"/>
+      <c r="CZ4" s="37"/>
+      <c r="DA4" s="37"/>
+      <c r="DB4" s="37"/>
+      <c r="DC4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="DD4" s="35"/>
-      <c r="DE4" s="35"/>
-      <c r="DF4" s="35"/>
-      <c r="DG4" s="35"/>
-      <c r="DH4" s="35"/>
-      <c r="DI4" s="35"/>
-      <c r="DJ4" s="35"/>
-      <c r="DK4" s="35" t="s">
+      <c r="DD4" s="37"/>
+      <c r="DE4" s="37"/>
+      <c r="DF4" s="37"/>
+      <c r="DG4" s="37"/>
+      <c r="DH4" s="37"/>
+      <c r="DI4" s="37"/>
+      <c r="DJ4" s="37"/>
+      <c r="DK4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="DL4" s="35"/>
-      <c r="DM4" s="35"/>
-      <c r="DN4" s="35"/>
-      <c r="DO4" s="35"/>
-      <c r="DP4" s="35"/>
-      <c r="DQ4" s="35"/>
-      <c r="DR4" s="35"/>
+      <c r="DL4" s="37"/>
+      <c r="DM4" s="37"/>
+      <c r="DN4" s="37"/>
+      <c r="DO4" s="37"/>
+      <c r="DP4" s="37"/>
+      <c r="DQ4" s="37"/>
+      <c r="DR4" s="37"/>
     </row>
     <row r="5" spans="2:122" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -2954,11 +2957,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="DL2:DR2"/>
-    <mergeCell ref="BW4:CD4"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BG4:BN4"/>
-    <mergeCell ref="AY4:BF4"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="DK4:DR4"/>
     <mergeCell ref="DC4:DJ4"/>
@@ -2970,8 +2968,14 @@
     <mergeCell ref="K4:R4"/>
     <mergeCell ref="AQ4:AX4"/>
     <mergeCell ref="AI4:AP4"/>
+    <mergeCell ref="DL2:DR2"/>
+    <mergeCell ref="BW4:CD4"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BG4:BN4"/>
+    <mergeCell ref="AY4:BF4"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" pageOrder="overThenDown" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Annexes/Planification initiale_MB.xlsx
+++ b/Documentation/Annexes/Planification initiale_MB.xlsx
@@ -787,7 +787,7 @@
   <dimension ref="B1:DR19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.7109375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2976,6 +2976,6 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" pageOrder="overThenDown" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="66" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Annexes/Planification initiale_MB.xlsx
+++ b/Documentation/Annexes/Planification initiale_MB.xlsx
@@ -483,13 +483,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -781,9 +781,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="B1:DR19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1038,168 +1035,168 @@
       <c r="DI2" s="31"/>
       <c r="DJ2" s="31"/>
       <c r="DK2" s="30"/>
-      <c r="DL2" s="35" t="s">
+      <c r="DL2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="DM2" s="36"/>
-      <c r="DN2" s="36"/>
-      <c r="DO2" s="36"/>
-      <c r="DP2" s="36"/>
-      <c r="DQ2" s="36"/>
-      <c r="DR2" s="36"/>
+      <c r="DM2" s="37"/>
+      <c r="DN2" s="37"/>
+      <c r="DO2" s="37"/>
+      <c r="DP2" s="37"/>
+      <c r="DQ2" s="37"/>
+      <c r="DR2" s="37"/>
     </row>
     <row r="3" spans="2:122" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:122" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37" t="s">
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37" t="s">
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37" t="s">
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37" t="s">
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="37"/>
-      <c r="AW4" s="37"/>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="37" t="s">
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37"/>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="37"/>
-      <c r="BE4" s="37"/>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="37" t="s">
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="BH4" s="37"/>
-      <c r="BI4" s="37"/>
-      <c r="BJ4" s="37"/>
-      <c r="BK4" s="37"/>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="37"/>
-      <c r="BN4" s="37"/>
-      <c r="BO4" s="37" t="s">
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="BP4" s="37"/>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="37"/>
-      <c r="BT4" s="37"/>
-      <c r="BU4" s="37"/>
-      <c r="BV4" s="37"/>
-      <c r="BW4" s="37" t="s">
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="BX4" s="37"/>
-      <c r="BY4" s="37"/>
-      <c r="BZ4" s="37"/>
-      <c r="CA4" s="37"/>
-      <c r="CB4" s="37"/>
-      <c r="CC4" s="37"/>
-      <c r="CD4" s="37"/>
-      <c r="CE4" s="37" t="s">
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="35"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="35"/>
+      <c r="CE4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="CF4" s="37"/>
-      <c r="CG4" s="37"/>
-      <c r="CH4" s="37"/>
-      <c r="CI4" s="37"/>
-      <c r="CJ4" s="37"/>
-      <c r="CK4" s="37"/>
-      <c r="CL4" s="37"/>
-      <c r="CM4" s="37" t="s">
+      <c r="CF4" s="35"/>
+      <c r="CG4" s="35"/>
+      <c r="CH4" s="35"/>
+      <c r="CI4" s="35"/>
+      <c r="CJ4" s="35"/>
+      <c r="CK4" s="35"/>
+      <c r="CL4" s="35"/>
+      <c r="CM4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="CN4" s="37"/>
-      <c r="CO4" s="37"/>
-      <c r="CP4" s="37"/>
-      <c r="CQ4" s="37"/>
-      <c r="CR4" s="37"/>
-      <c r="CS4" s="37"/>
-      <c r="CT4" s="37"/>
-      <c r="CU4" s="37" t="s">
+      <c r="CN4" s="35"/>
+      <c r="CO4" s="35"/>
+      <c r="CP4" s="35"/>
+      <c r="CQ4" s="35"/>
+      <c r="CR4" s="35"/>
+      <c r="CS4" s="35"/>
+      <c r="CT4" s="35"/>
+      <c r="CU4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="CV4" s="37"/>
-      <c r="CW4" s="37"/>
-      <c r="CX4" s="37"/>
-      <c r="CY4" s="37"/>
-      <c r="CZ4" s="37"/>
-      <c r="DA4" s="37"/>
-      <c r="DB4" s="37"/>
-      <c r="DC4" s="37" t="s">
+      <c r="CV4" s="35"/>
+      <c r="CW4" s="35"/>
+      <c r="CX4" s="35"/>
+      <c r="CY4" s="35"/>
+      <c r="CZ4" s="35"/>
+      <c r="DA4" s="35"/>
+      <c r="DB4" s="35"/>
+      <c r="DC4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="DD4" s="37"/>
-      <c r="DE4" s="37"/>
-      <c r="DF4" s="37"/>
-      <c r="DG4" s="37"/>
-      <c r="DH4" s="37"/>
-      <c r="DI4" s="37"/>
-      <c r="DJ4" s="37"/>
-      <c r="DK4" s="37" t="s">
+      <c r="DD4" s="35"/>
+      <c r="DE4" s="35"/>
+      <c r="DF4" s="35"/>
+      <c r="DG4" s="35"/>
+      <c r="DH4" s="35"/>
+      <c r="DI4" s="35"/>
+      <c r="DJ4" s="35"/>
+      <c r="DK4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="DL4" s="37"/>
-      <c r="DM4" s="37"/>
-      <c r="DN4" s="37"/>
-      <c r="DO4" s="37"/>
-      <c r="DP4" s="37"/>
-      <c r="DQ4" s="37"/>
-      <c r="DR4" s="37"/>
+      <c r="DL4" s="35"/>
+      <c r="DM4" s="35"/>
+      <c r="DN4" s="35"/>
+      <c r="DO4" s="35"/>
+      <c r="DP4" s="35"/>
+      <c r="DQ4" s="35"/>
+      <c r="DR4" s="35"/>
     </row>
     <row r="5" spans="2:122" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -2957,6 +2954,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="DL2:DR2"/>
+    <mergeCell ref="BW4:CD4"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BG4:BN4"/>
+    <mergeCell ref="AY4:BF4"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="DK4:DR4"/>
     <mergeCell ref="DC4:DJ4"/>
@@ -2968,14 +2970,9 @@
     <mergeCell ref="K4:R4"/>
     <mergeCell ref="AQ4:AX4"/>
     <mergeCell ref="AI4:AP4"/>
-    <mergeCell ref="DL2:DR2"/>
-    <mergeCell ref="BW4:CD4"/>
-    <mergeCell ref="BO4:BV4"/>
-    <mergeCell ref="BG4:BN4"/>
-    <mergeCell ref="AY4:BF4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="66" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>